--- a/pred_ohlcv/54_21/2020-01-24 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 BTT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-14110563.7501</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-20597055.0104</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-26597055.0104</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-26597055.0104</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-26595854.3517</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-29646525.8801</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-29646525.8801</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-67113121.92840001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-67161322.65820001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-121197974.8643</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-121197974.8643</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-103384656.652</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-103384656.652</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-104562956.7291</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-104644388.7291</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-104644388.7291</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-106101793.5062</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-103544793.7064</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-103656197.7064</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-103063604.7161</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-102822717.5595</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-105125940.5595</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-105124740.5595</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-105214951.6919</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-105214951.6919</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-105214951.6919</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-106156491.6918</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-131050628.2694</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-131797029.9244</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-132855928.5933</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-155014847.2147</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-154603927.4415</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-154202073.9771</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-154202073.9771</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-162317935.0633</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-162577513.123</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 BTT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-14110563.7501</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-20597055.0104</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-26597055.0104</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-26597055.0104</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-26595854.3517</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-29646525.8801</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-29646525.8801</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-67113121.92840001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-67161322.65820001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-66500199.93460001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-121197974.8643</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-121197974.8643</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-103384656.652</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-103384656.652</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-104562956.7291</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-104644388.7291</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-104644388.7291</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-106101793.5062</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-103544793.7064</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-103656197.7064</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-103063604.7161</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-102822717.5595</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-105125940.5595</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-105124740.5595</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-105214951.6919</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-105214951.6919</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-105214951.6919</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-106156491.6918</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-131050628.2694</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-131797029.9244</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-132855928.5933</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-154602683.356</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-154602683.356</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-154202073.9771</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-154202073.9771</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-136126136.999</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-162347064.2295</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-162317935.0633</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-162577513.123</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
